--- a/pred_ohlcv/54_21/2019-10-17 XMR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-17 XMR ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>403.0100526835889</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>368.4975526835889</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>368.4975526835889</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>368.4975526835889</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>368.4975526835889</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>368.4975526835889</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>368.0469526835889</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>368.0469526835889</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -834,7 +834,7 @@
         <v>369.1845526835889</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>384.5357577959049</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>449.5715577959049</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>449.5715577959049</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>442.373757795905</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>487.579057795905</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>487.579057795905</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>475.195057795905</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>475.195057795905</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>475.195057795905</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>475.195057795905</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>475.195057795905</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>495.195057795905</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>553.697657795905</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>550.527657795905</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>552.527657795905</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>522.507857795905</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>522.507857795905</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>545.107857795905</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>545.107857795905</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>518.418157795905</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>489.963157795905</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>489.963157795905</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>485.7941577959051</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>485.7941577959051</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>412.8720577959051</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>425.998057795905</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>462.8636577959051</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>462.8636577959051</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>462.8368577959051</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>462.5895577959051</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>462.5895577959051</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>462.5895577959051</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>462.5895577959051</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>462.5895577959051</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>462.7531577959051</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>462.7531577959051</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>462.7531577959051</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>462.7531577959051</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>461.752757795905</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>441.402457795905</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>340.0518577959051</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>282.4234577959051</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>292.7234577959051</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>296.7222577959051</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>294.2736577959051</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>313.6403611035971</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>373.4465611035971</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>278.7442611035971</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>294.7642611035971</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>573.333373928942</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>580.833373928942</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>650.2820631504981</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>619.279063150498</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>611.413779255367</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>611.393779255367</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>633.863279255367</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>633.0832792553671</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>639.9823402621281</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>661.8897402621282</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>639.7468402621281</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>635.2073402621281</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>663.0093402621281</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>696.8465661603311</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>696.6146661603311</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>697.6436661603311</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>703.7114661603312</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>703.7114661603312</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>703.7114661603312</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>708.8222661603312</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>708.8222661603312</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>708.8222661603312</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>708.8222661603312</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>667.0734661603312</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>661.2958629489802</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>654.8163629489802</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>652.1631629489802</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>652.1631629489802</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>909.3471713319982</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>909.3471713319982</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>909.3471713319982</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>1000.772482421962</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>984.7529824219622</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>1054.867682421962</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>1054.867682421962</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>1106.465482421962</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>1098.976882421962</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>1168.976882421962</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>1168.976882421962</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>2547.435251611334</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>2543.509576611334</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>2537.509576611334</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>2537.509576611334</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>2537.509576611334</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>2506.214676611334</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>2525.004676611334</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>2584.120687683016</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>2581.858387683016</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>2652.128076611334</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>2835.027676611334</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>2835.027676611334</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>2835.027676611334</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>2967.954976611334</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>2966.289976611334</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>2903.955276611334</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>2881.518076611334</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>2892.518076611334</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>2881.080876611335</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>2880.080876611335</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>2880.090876611335</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>2880.090876611335</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>2888.090876611335</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>2888.090876611335</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>2950.080476611335</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>2967.179276611335</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>2984.279476611335</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>2953.613076611335</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>2944.241976611335</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>2913.383976611335</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>2943.831776611335</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>2941.099376611335</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>2919.705076611335</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>2925.444576611335</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>2915.821276611335</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>2915.197276611335</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>2915.207276611335</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>2912.061676611335</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>2904.515276611335</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>2910.009176611335</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>2906.685176611335</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>2907.162376611335</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>2907.162376611335</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>2927.782376611335</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>2929.782376611335</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>2925.432776611335</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>2923.918076611335</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>2950.977676611335</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>2948.410676611335</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>2938.410676611335</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>2944.77057037904</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>2943.77057037904</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>2943.77057037904</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>2943.10057037904</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>2945.86667037904</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>2950.86667037904</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>2950.86667037904</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>2950.86667037904</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>2950.86667037904</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>2955.86667037904</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>2958.86667037904</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>2958.86667037904</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>2830.54617037904</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>2847.60617037904</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>2831.07427037904</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>2831.07427037904</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>2811.07427037904</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>2800.86857037904</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>2864.50567037904</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>2884.15467037904</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>2888.15467037904</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>2888.15467037904</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>2909.863270379039</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-17 XMR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-17 XMR ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>403.0100526835889</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>368.4975526835889</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>368.4975526835889</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>368.4975526835889</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>368.4975526835889</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>368.4975526835889</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>368.0469526835889</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>368.0469526835889</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -808,7 +808,7 @@
         <v>369.1845526835889</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -860,7 +860,7 @@
         <v>369.1845526835889</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>369.118852683589</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>368.917252683589</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>368.917252683589</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -990,7 +990,7 @@
         <v>369.8052526835889</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>372.7495526835889</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>380.502157795905</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>380.502157795905</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>384.5357577959049</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>384.5357577959049</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>449.5715577959049</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>449.5715577959049</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>442.373757795905</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>487.579057795905</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>487.579057795905</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>475.195057795905</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>475.195057795905</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>475.195057795905</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>475.195057795905</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>475.195057795905</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>495.195057795905</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>553.697657795905</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>550.527657795905</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>552.527657795905</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>522.507857795905</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>522.507857795905</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>545.107857795905</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>545.107857795905</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>518.418157795905</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>489.963157795905</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>489.963157795905</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>485.7941577959051</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>485.7941577959051</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>412.8720577959051</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>425.998057795905</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>462.8636577959051</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>462.8636577959051</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>462.8368577959051</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>462.5895577959051</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>462.5895577959051</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>462.5895577959051</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>462.5895577959051</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>462.5895577959051</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>462.5895577959051</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>462.7531577959051</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>462.7531577959051</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>462.7531577959051</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>462.7531577959051</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>461.752757795905</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>441.402457795905</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>340.0518577959051</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>264.172557795905</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>259.4564577959051</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>259.4564577959051</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>280.4744577959051</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>282.4234577959051</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>282.4234577959051</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>292.7234577959051</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>296.7222577959051</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>295.3120577959051</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>294.2736577959051</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>293.0936577959051</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>294.1936577959051</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>313.6403611035971</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>373.4465611035971</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>278.7442611035971</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>294.7642611035971</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>573.333373928942</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>580.833373928942</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>650.2820631504981</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>619.279063150498</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>611.413779255367</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>611.393779255367</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>633.863279255367</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>633.0832792553671</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>639.9823402621281</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>661.8897402621282</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>639.7468402621281</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>635.2073402621281</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>663.0093402621281</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>696.8465661603311</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>696.6146661603311</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>697.6436661603311</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>703.7114661603312</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>703.7114661603312</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>703.7114661603312</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>708.8222661603312</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>708.8222661603312</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>708.8222661603312</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>708.8222661603312</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>667.0734661603312</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>661.2958629489802</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>654.8163629489802</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>652.1631629489802</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>652.1631629489802</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>909.3471713319982</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>909.3471713319982</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>909.3471713319982</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>1000.772482421962</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>984.7529824219622</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>1054.867682421962</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>1054.867682421962</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>1106.465482421962</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>1098.976882421962</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>1168.976882421962</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>1168.976882421962</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>2544.914551611334</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>2546.833951611335</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>2547.834851611335</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>2547.834851611335</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>2547.435251611334</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>2547.466814111334</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>2543.478014111334</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>2543.509576611334</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>2537.509576611334</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>2537.509576611334</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>2537.509576611334</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>2506.214676611334</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>2525.004676611334</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>2584.120687683016</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>2581.858387683016</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>2652.128076611334</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>2835.027676611334</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>2835.027676611334</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>2835.027676611334</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>2967.954976611334</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>2966.289976611334</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>2903.955276611334</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>2881.518076611334</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>2892.518076611334</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>2881.080876611335</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>2880.080876611335</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>2880.090876611335</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>2880.090876611335</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>2888.090876611335</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>2888.090876611335</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>2950.080476611335</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>2967.179276611335</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>2984.279476611335</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>2953.613076611335</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>2944.241976611335</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>2913.383976611335</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>2943.831776611335</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>2941.099376611335</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>2919.705076611335</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>2925.444576611335</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>2915.821276611335</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>2915.197276611335</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>2915.207276611335</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>2912.061676611335</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>2904.515276611335</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>2910.009176611335</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>2906.685176611335</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>2907.162376611335</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>2907.162376611335</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>2927.782376611335</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>2929.782376611335</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>2925.432776611335</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>2923.918076611335</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>2950.977676611335</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>2948.410676611335</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>2938.410676611335</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>2944.77057037904</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>2943.77057037904</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>2943.77057037904</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>2943.10057037904</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>2945.86667037904</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>2950.86667037904</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>2950.86667037904</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>2950.86667037904</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>2950.86667037904</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>2955.86667037904</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>2958.86667037904</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>2958.86667037904</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>2830.54617037904</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>2847.60617037904</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>2831.07427037904</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>2831.07427037904</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>2811.07427037904</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>2800.86857037904</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>2909.863270379039</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
